--- a/exp5/img/chart.xlsx
+++ b/exp5/img/chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RUKAWA-X/Documents/Course/数值分析/exp/exp5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RUKAWA-X/Documents/Course/数值分析/exp/exp5/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="900" windowWidth="27280" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-19900" yWindow="7040" windowWidth="27280" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>5       62651.9</t>
   </si>
@@ -115,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,44 +167,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>误差随</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>误差</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>随</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>n</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>变化趋势图</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>变化趋势</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>有扰动</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>无扰动</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -271,10 +262,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$T$25</c:f>
+              <c:f>Sheet1!$F$25:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -316,63 +307,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$26:$T$26</c:f>
+              <c:f>Sheet1!$F$26:$S$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>62651.9</c:v>
+                  <c:v>2.59126E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149421.0</c:v>
+                  <c:v>4.25416E-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198598.0</c:v>
+                  <c:v>1.52219E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137752.0</c:v>
+                  <c:v>4.87042E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38831.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.700641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1.68691E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.000436912</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.00972649</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.204232</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.49353</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>10.4282</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.35505</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>9.180070000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>18.4165</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>46.1289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,11 +373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1184344384"/>
-        <c:axId val="-1023300480"/>
+        <c:axId val="-2122142848"/>
+        <c:axId val="-2122141008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1184344384"/>
+        <c:axId val="-2122142848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023300480"/>
+        <c:crossAx val="-2122141008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,7 +428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1023300480"/>
+        <c:axId val="-2122141008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +448,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -494,7 +479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1184344384"/>
+        <c:crossAx val="-2122142848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,50 +562,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>误差随</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>误差</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>随</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>n</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>变化趋势图</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>变化趋势</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>无</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>有扰动</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>扰动</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -688,10 +657,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$T$29</c:f>
+              <c:f>Sheet1!$F$29:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -733,63 +702,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$T$30</c:f>
+              <c:f>Sheet1!$F$30:$S$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.00026</c:v>
+                  <c:v>0.000112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00058</c:v>
+                  <c:v>0.00063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00016</c:v>
+                  <c:v>0.00346499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.00016</c:v>
+                  <c:v>0.021622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000349341</c:v>
+                  <c:v>0.126111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000436912</c:v>
+                  <c:v>0.700641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>4.16316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>23.28361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>66.705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>321.727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>41.1268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>487.791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>104.459</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>424.302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,11 +768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1023229920"/>
-        <c:axId val="-1023235120"/>
+        <c:axId val="-2114346496"/>
+        <c:axId val="-2131026096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1023229920"/>
+        <c:axId val="-2114346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023235120"/>
+        <c:crossAx val="-2131026096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1023235120"/>
+        <c:axId val="-2131026096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023229920"/>
+        <c:crossAx val="-2114346496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2077,19 +2040,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2106,20 +2069,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2402,11 +2365,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:T30"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2451,169 +2417,88 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>62651.9</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1">
-        <v>149421</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1">
-        <v>198598</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>137752</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1">
-        <v>38831.4</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.70064099999999996</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="G16">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="G20">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="G21">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="G22">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="G23">
-        <v>19</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>15</v>
       </c>
@@ -2659,89 +2544,63 @@
       <c r="S25">
         <v>18</v>
       </c>
-      <c r="T25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="26" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="1">
-        <v>62651.9</v>
-      </c>
-      <c r="G26" s="1">
-        <v>149421</v>
-      </c>
-      <c r="H26" s="1">
-        <v>198598</v>
-      </c>
-      <c r="I26" s="1">
-        <v>137752</v>
-      </c>
-      <c r="J26" s="1">
-        <v>38831.4</v>
+      <c r="F26" s="2">
+        <v>2.59126E-12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.2541599999999998E-10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.52219E-8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.8704199999999995E-7</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.6869100000000001E-5</v>
       </c>
       <c r="K26" s="1">
-        <v>0.70064099999999996</v>
+        <v>4.3691200000000002E-4</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>9.7264900000000008E-3</v>
       </c>
       <c r="M26" s="1">
-        <v>1</v>
+        <v>0.204232</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>6.4935299999999998</v>
       </c>
       <c r="O26" s="1">
-        <v>1</v>
+        <v>10.4282</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>8.3550500000000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>9.1800700000000006</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>18.416499999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.0002599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.00058</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.0001599999999999</v>
-      </c>
+        <v>46.128900000000002</v>
+      </c>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
       <c r="E29" t="s">
         <v>15</v>
       </c>
@@ -2787,153 +2646,88 @@
       <c r="S29">
         <v>18</v>
       </c>
-      <c r="T29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.0001599999999999</v>
-      </c>
+    </row>
+    <row r="30" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0002599999999999</v>
+        <v>1.12E-4</v>
       </c>
       <c r="G30" s="1">
-        <v>1.00058</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="H30" s="1">
-        <v>1.0001599999999999</v>
+        <v>3.4649899999999998E-3</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0001599999999999</v>
+        <v>2.1621999999999999E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>3.4934099999999997E-4</v>
+        <v>0.126111</v>
       </c>
       <c r="K30" s="1">
-        <v>4.3691200000000002E-4</v>
+        <v>0.70064099999999996</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>4.1631600000000004</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>23.283609999999999</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>66.704999999999998</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>321.72699999999998</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>41.126800000000003</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>487.791</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>104.459</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3.4934099999999997E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4.3691200000000002E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C39">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>19</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
+        <v>424.30200000000002</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
